--- a/Utils/Student.xlsx
+++ b/Utils/Student.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Amit</t>
   </si>
@@ -398,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
